--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes</t>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>32,75%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,03; 40,91</t>
+          <t>10,95; 38,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 39,09</t>
+          <t>11,57; 67,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,68; 40,07</t>
+          <t>24,71; 52,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 32,39</t>
+          <t>19,36; 47,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 37,51</t>
+          <t>21,9; 42,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 30,0</t>
+          <t>20,55; 51,54</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>22,43%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 25,72</t>
+          <t>10,68; 23,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 25,12</t>
+          <t>13,81; 36,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,77; 31,5</t>
+          <t>18,72; 31,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,65; 24,22</t>
+          <t>17,62; 29,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,77</t>
+          <t>16,42; 25,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 22,89</t>
+          <t>17,58; 30,08</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 26,65</t>
+          <t>14,46; 29,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 19,36</t>
+          <t>4,0; 13,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 29,4</t>
+          <t>14,89; 27,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 28,76</t>
+          <t>14,94; 28,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,07; 26,26</t>
+          <t>16,12; 25,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,17; 22,67</t>
+          <t>11,56; 19,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 26,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 21,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 29,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,25; 24,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,35; 26,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 21,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22,16%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 24,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 27,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20,65; 28,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 28,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 25,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 25,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24636</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43135</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45176</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45724</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>69813</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>88859</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11319; 40286</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14918; 86441</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29107; 61351</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27582; 67369</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48435; 94623</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>55758; 139854</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59549</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>91899</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96301</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>108606</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>155850</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>39099; 84862</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59306; 155824</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>73139; 122777</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>81819; 137961</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>124231; 192224</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>157151; 268934</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60349</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26152</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73659</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>91904</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>134008</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>118056</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41353; 84964</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13308; 43714</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53539; 99953</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>63998; 120377</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>104034; 164449</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>88018; 151658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>144534</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>161185</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>215137</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>246235</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>359671</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>407420</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>113224; 185753</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105904; 247392</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>179223; 251417</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>204709; 290530</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>313769; 417143</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>343498; 499495</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>